--- a/FileNames/23-ECMW-QCD-009 Internal Audit FM.xlsx
+++ b/FileNames/23-ECMW-QCD-009 Internal Audit FM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Desktop\QMS_Manual\FileNames\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -1299,11 +1304,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1313,15 +1322,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,6 +1336,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1379,7 +1387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,7 +1422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1625,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
@@ -3007,24 +3015,24 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="47"/>
-      <c r="AI35" s="47"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="47"/>
-      <c r="AL35" s="48"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
@@ -3051,24 +3059,24 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="47"/>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="47"/>
-      <c r="AL36" s="48"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
@@ -3091,24 +3099,24 @@
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
       <c r="T37" s="34"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="47"/>
-      <c r="AL37" s="48"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -3575,24 +3583,24 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
       <c r="T48" s="34"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="47"/>
-      <c r="AL48" s="48"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="41"/>
+      <c r="AK48" s="41"/>
+      <c r="AL48" s="42"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
@@ -3661,24 +3669,24 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="42"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="48"/>
+      <c r="AB50" s="48"/>
+      <c r="AC50" s="48"/>
+      <c r="AD50" s="48"/>
+      <c r="AE50" s="48"/>
+      <c r="AF50" s="48"/>
+      <c r="AG50" s="48"/>
+      <c r="AH50" s="48"/>
+      <c r="AI50" s="48"/>
+      <c r="AJ50" s="48"/>
+      <c r="AK50" s="48"/>
+      <c r="AL50" s="48"/>
     </row>
     <row r="51" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -3705,24 +3713,24 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="42"/>
-      <c r="AD51" s="42"/>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="42"/>
-      <c r="AH51" s="42"/>
-      <c r="AI51" s="42"/>
-      <c r="AJ51" s="42"/>
-      <c r="AK51" s="42"/>
-      <c r="AL51" s="42"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="48"/>
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="48"/>
+      <c r="AF51" s="48"/>
+      <c r="AG51" s="48"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="48"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="48"/>
+      <c r="AL51" s="48"/>
     </row>
     <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
@@ -3749,24 +3757,24 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
-      <c r="AJ52" s="42"/>
-      <c r="AK52" s="42"/>
-      <c r="AL52" s="42"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="48"/>
+      <c r="AB52" s="48"/>
+      <c r="AC52" s="48"/>
+      <c r="AD52" s="48"/>
+      <c r="AE52" s="48"/>
+      <c r="AF52" s="48"/>
+      <c r="AG52" s="48"/>
+      <c r="AH52" s="48"/>
+      <c r="AI52" s="48"/>
+      <c r="AJ52" s="48"/>
+      <c r="AK52" s="48"/>
+      <c r="AL52" s="48"/>
     </row>
     <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
@@ -3793,24 +3801,24 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="42"/>
-      <c r="AJ53" s="42"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="48"/>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="48"/>
+      <c r="AK53" s="48"/>
+      <c r="AL53" s="48"/>
     </row>
     <row r="54" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
@@ -3837,24 +3845,24 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="42"/>
-      <c r="AB54" s="42"/>
-      <c r="AC54" s="42"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42"/>
-      <c r="AH54" s="42"/>
-      <c r="AI54" s="42"/>
-      <c r="AJ54" s="42"/>
-      <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="48"/>
+      <c r="AC54" s="48"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="48"/>
+      <c r="AF54" s="48"/>
+      <c r="AG54" s="48"/>
+      <c r="AH54" s="48"/>
+      <c r="AI54" s="48"/>
+      <c r="AJ54" s="48"/>
+      <c r="AK54" s="48"/>
+      <c r="AL54" s="48"/>
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
@@ -3881,27 +3889,27 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="42"/>
-      <c r="AB55" s="42"/>
-      <c r="AC55" s="42"/>
-      <c r="AD55" s="42"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="42"/>
-      <c r="AH55" s="42"/>
-      <c r="AI55" s="42"/>
-      <c r="AJ55" s="42"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="48"/>
+      <c r="AH55" s="48"/>
+      <c r="AI55" s="48"/>
+      <c r="AJ55" s="48"/>
+      <c r="AK55" s="48"/>
+      <c r="AL55" s="48"/>
     </row>
     <row r="56" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="37"/>
@@ -3925,40 +3933,40 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="42"/>
-      <c r="AB56" s="42"/>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
-      <c r="AF56" s="42"/>
-      <c r="AG56" s="42"/>
-      <c r="AH56" s="42"/>
-      <c r="AI56" s="42"/>
-      <c r="AJ56" s="42"/>
-      <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="48"/>
+      <c r="AG56" s="48"/>
+      <c r="AH56" s="48"/>
+      <c r="AI56" s="48"/>
+      <c r="AJ56" s="48"/>
+      <c r="AK56" s="48"/>
+      <c r="AL56" s="48"/>
     </row>
     <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
       <c r="M57" s="9" t="s">
         <v>24</v>
       </c>
@@ -3969,24 +3977,24 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="42"/>
-      <c r="AB57" s="42"/>
-      <c r="AC57" s="42"/>
-      <c r="AD57" s="42"/>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
-      <c r="AG57" s="42"/>
-      <c r="AH57" s="42"/>
-      <c r="AI57" s="42"/>
-      <c r="AJ57" s="42"/>
-      <c r="AK57" s="42"/>
-      <c r="AL57" s="42"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="48"/>
+      <c r="AB57" s="48"/>
+      <c r="AC57" s="48"/>
+      <c r="AD57" s="48"/>
+      <c r="AE57" s="48"/>
+      <c r="AF57" s="48"/>
+      <c r="AG57" s="48"/>
+      <c r="AH57" s="48"/>
+      <c r="AI57" s="48"/>
+      <c r="AJ57" s="48"/>
+      <c r="AK57" s="48"/>
+      <c r="AL57" s="48"/>
     </row>
     <row r="58" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
@@ -4009,38 +4017,38 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-      <c r="AH58" s="42"/>
-      <c r="AI58" s="42"/>
-      <c r="AJ58" s="42"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="48"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="48"/>
+      <c r="AA58" s="48"/>
+      <c r="AB58" s="48"/>
+      <c r="AC58" s="48"/>
+      <c r="AD58" s="48"/>
+      <c r="AE58" s="48"/>
+      <c r="AF58" s="48"/>
+      <c r="AG58" s="48"/>
+      <c r="AH58" s="48"/>
+      <c r="AI58" s="48"/>
+      <c r="AJ58" s="48"/>
+      <c r="AK58" s="48"/>
+      <c r="AL58" s="48"/>
     </row>
     <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -4049,38 +4057,38 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="42"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="48"/>
+      <c r="W59" s="48"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="48"/>
+      <c r="Z59" s="48"/>
+      <c r="AA59" s="48"/>
+      <c r="AB59" s="48"/>
+      <c r="AC59" s="48"/>
+      <c r="AD59" s="48"/>
+      <c r="AE59" s="48"/>
+      <c r="AF59" s="48"/>
+      <c r="AG59" s="48"/>
+      <c r="AH59" s="48"/>
+      <c r="AI59" s="48"/>
+      <c r="AJ59" s="48"/>
+      <c r="AK59" s="48"/>
+      <c r="AL59" s="48"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -4089,424 +4097,424 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-      <c r="AH60" s="42"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="48"/>
+      <c r="W60" s="48"/>
+      <c r="X60" s="48"/>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="48"/>
+      <c r="AA60" s="48"/>
+      <c r="AB60" s="48"/>
+      <c r="AC60" s="48"/>
+      <c r="AD60" s="48"/>
+      <c r="AE60" s="48"/>
+      <c r="AF60" s="48"/>
+      <c r="AG60" s="48"/>
+      <c r="AH60" s="48"/>
+      <c r="AI60" s="48"/>
+      <c r="AJ60" s="48"/>
+      <c r="AK60" s="48"/>
+      <c r="AL60" s="48"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="48"/>
+      <c r="W61" s="48"/>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="48"/>
+      <c r="Z61" s="48"/>
+      <c r="AA61" s="48"/>
+      <c r="AB61" s="48"/>
+      <c r="AC61" s="48"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="48"/>
+      <c r="AF61" s="48"/>
+      <c r="AG61" s="48"/>
+      <c r="AH61" s="48"/>
+      <c r="AI61" s="48"/>
+      <c r="AJ61" s="48"/>
+      <c r="AK61" s="48"/>
+      <c r="AL61" s="48"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
-      <c r="AH62" s="42"/>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="42"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="48"/>
+      <c r="W62" s="48"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="48"/>
+      <c r="Z62" s="48"/>
+      <c r="AA62" s="48"/>
+      <c r="AB62" s="48"/>
+      <c r="AC62" s="48"/>
+      <c r="AD62" s="48"/>
+      <c r="AE62" s="48"/>
+      <c r="AF62" s="48"/>
+      <c r="AG62" s="48"/>
+      <c r="AH62" s="48"/>
+      <c r="AI62" s="48"/>
+      <c r="AJ62" s="48"/>
+      <c r="AK62" s="48"/>
+      <c r="AL62" s="48"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42"/>
-      <c r="Y63" s="42"/>
-      <c r="Z63" s="42"/>
-      <c r="AA63" s="42"/>
-      <c r="AB63" s="42"/>
-      <c r="AC63" s="42"/>
-      <c r="AD63" s="42"/>
-      <c r="AE63" s="42"/>
-      <c r="AF63" s="42"/>
-      <c r="AG63" s="42"/>
-      <c r="AH63" s="42"/>
-      <c r="AI63" s="42"/>
-      <c r="AJ63" s="42"/>
-      <c r="AK63" s="42"/>
-      <c r="AL63" s="42"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="48"/>
+      <c r="W63" s="48"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="48"/>
+      <c r="Z63" s="48"/>
+      <c r="AA63" s="48"/>
+      <c r="AB63" s="48"/>
+      <c r="AC63" s="48"/>
+      <c r="AD63" s="48"/>
+      <c r="AE63" s="48"/>
+      <c r="AF63" s="48"/>
+      <c r="AG63" s="48"/>
+      <c r="AH63" s="48"/>
+      <c r="AI63" s="48"/>
+      <c r="AJ63" s="48"/>
+      <c r="AK63" s="48"/>
+      <c r="AL63" s="48"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="42"/>
-      <c r="AE64" s="42"/>
-      <c r="AF64" s="42"/>
-      <c r="AG64" s="42"/>
-      <c r="AH64" s="42"/>
-      <c r="AI64" s="42"/>
-      <c r="AJ64" s="42"/>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="48"/>
+      <c r="W64" s="48"/>
+      <c r="X64" s="48"/>
+      <c r="Y64" s="48"/>
+      <c r="Z64" s="48"/>
+      <c r="AA64" s="48"/>
+      <c r="AB64" s="48"/>
+      <c r="AC64" s="48"/>
+      <c r="AD64" s="48"/>
+      <c r="AE64" s="48"/>
+      <c r="AF64" s="48"/>
+      <c r="AG64" s="48"/>
+      <c r="AH64" s="48"/>
+      <c r="AI64" s="48"/>
+      <c r="AJ64" s="48"/>
+      <c r="AK64" s="48"/>
+      <c r="AL64" s="48"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
-      <c r="AB65" s="42"/>
-      <c r="AC65" s="42"/>
-      <c r="AD65" s="42"/>
-      <c r="AE65" s="42"/>
-      <c r="AF65" s="42"/>
-      <c r="AG65" s="42"/>
-      <c r="AH65" s="42"/>
-      <c r="AI65" s="42"/>
-      <c r="AJ65" s="42"/>
-      <c r="AK65" s="42"/>
-      <c r="AL65" s="42"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="48"/>
+      <c r="W65" s="48"/>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="48"/>
+      <c r="Z65" s="48"/>
+      <c r="AA65" s="48"/>
+      <c r="AB65" s="48"/>
+      <c r="AC65" s="48"/>
+      <c r="AD65" s="48"/>
+      <c r="AE65" s="48"/>
+      <c r="AF65" s="48"/>
+      <c r="AG65" s="48"/>
+      <c r="AH65" s="48"/>
+      <c r="AI65" s="48"/>
+      <c r="AJ65" s="48"/>
+      <c r="AK65" s="48"/>
+      <c r="AL65" s="48"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
-      <c r="Z66" s="42"/>
-      <c r="AA66" s="42"/>
-      <c r="AB66" s="42"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="42"/>
-      <c r="AE66" s="42"/>
-      <c r="AF66" s="42"/>
-      <c r="AG66" s="42"/>
-      <c r="AH66" s="42"/>
-      <c r="AI66" s="42"/>
-      <c r="AJ66" s="42"/>
-      <c r="AK66" s="42"/>
-      <c r="AL66" s="42"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="48"/>
+      <c r="W66" s="48"/>
+      <c r="X66" s="48"/>
+      <c r="Y66" s="48"/>
+      <c r="Z66" s="48"/>
+      <c r="AA66" s="48"/>
+      <c r="AB66" s="48"/>
+      <c r="AC66" s="48"/>
+      <c r="AD66" s="48"/>
+      <c r="AE66" s="48"/>
+      <c r="AF66" s="48"/>
+      <c r="AG66" s="48"/>
+      <c r="AH66" s="48"/>
+      <c r="AI66" s="48"/>
+      <c r="AJ66" s="48"/>
+      <c r="AK66" s="48"/>
+      <c r="AL66" s="48"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42"/>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="42"/>
-      <c r="AC67" s="42"/>
-      <c r="AD67" s="42"/>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
-      <c r="AH67" s="42"/>
-      <c r="AI67" s="42"/>
-      <c r="AJ67" s="42"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="48"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="48"/>
+      <c r="Z67" s="48"/>
+      <c r="AA67" s="48"/>
+      <c r="AB67" s="48"/>
+      <c r="AC67" s="48"/>
+      <c r="AD67" s="48"/>
+      <c r="AE67" s="48"/>
+      <c r="AF67" s="48"/>
+      <c r="AG67" s="48"/>
+      <c r="AH67" s="48"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="48"/>
+      <c r="AL67" s="48"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="42"/>
-      <c r="Z68" s="42"/>
-      <c r="AA68" s="42"/>
-      <c r="AB68" s="42"/>
-      <c r="AC68" s="42"/>
-      <c r="AD68" s="42"/>
-      <c r="AE68" s="42"/>
-      <c r="AF68" s="42"/>
-      <c r="AG68" s="42"/>
-      <c r="AH68" s="42"/>
-      <c r="AI68" s="42"/>
-      <c r="AJ68" s="42"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="48"/>
+      <c r="Y68" s="48"/>
+      <c r="Z68" s="48"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="48"/>
+      <c r="AF68" s="48"/>
+      <c r="AG68" s="48"/>
+      <c r="AH68" s="48"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
+      <c r="AK68" s="48"/>
+      <c r="AL68" s="48"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="42"/>
-      <c r="AD69" s="42"/>
-      <c r="AE69" s="42"/>
-      <c r="AF69" s="42"/>
-      <c r="AG69" s="42"/>
-      <c r="AH69" s="42"/>
-      <c r="AI69" s="42"/>
-      <c r="AJ69" s="42"/>
-      <c r="AK69" s="42"/>
-      <c r="AL69" s="42"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="48"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="42"/>
-      <c r="Y70" s="42"/>
-      <c r="Z70" s="42"/>
-      <c r="AA70" s="42"/>
-      <c r="AB70" s="42"/>
-      <c r="AC70" s="42"/>
-      <c r="AD70" s="42"/>
-      <c r="AE70" s="42"/>
-      <c r="AF70" s="42"/>
-      <c r="AG70" s="42"/>
-      <c r="AH70" s="42"/>
-      <c r="AI70" s="42"/>
-      <c r="AJ70" s="42"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="48"/>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="256">
@@ -4771,7 +4779,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LECMW-QCD-009&amp;CRevision Date: 11-18-14 C&amp;R&amp;P</oddFooter>
+    <oddFooter>&amp;LECMW-QCD-009&amp;R&amp;P&amp;CRevision Date: 2015/6/11 C</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
